--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T10:40:02+00:00</t>
+    <t>2022-08-08T11:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:46:36+00:00</t>
+    <t>2022-08-08T12:43:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T12:43:36+00:00</t>
+    <t>2022-08-08T13:51:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:51:59+00:00</t>
+    <t>2022-08-08T14:49:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T14:49:45+00:00</t>
+    <t>2022-08-09T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T06:53:55+00:00</t>
+    <t>2022-08-09T08:44:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T08:44:45+00:00</t>
+    <t>2022-08-09T08:50:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T08:50:44+00:00</t>
+    <t>2022-08-09T10:07:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T10:07:05+00:00</t>
+    <t>2022-08-09T11:02:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T11:02:47+00:00</t>
+    <t>2022-08-09T11:40:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T11:40:37+00:00</t>
+    <t>2022-08-09T11:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T11:56:01+00:00</t>
+    <t>2022-08-09T12:47:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T12:47:03+00:00</t>
+    <t>2022-08-09T13:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T13:07:41+00:00</t>
+    <t>2022-08-09T13:29:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T13:29:57+00:00</t>
+    <t>2022-08-09T15:06:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T15:06:14+00:00</t>
+    <t>2022-08-09T15:26:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T15:26:10+00:00</t>
+    <t>2022-08-09T15:34:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T15:34:44+00:00</t>
+    <t>2022-08-09T15:46:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T15:46:26+00:00</t>
+    <t>2022-08-10T01:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -23,7 +23,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.100495.20.1.73</t>
+    <t>urn:oid:1.2.392.100495.20.1.81</t>
   </si>
   <si>
     <t>Version</t>
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T01:00:29+00:00</t>
+    <t>2022-08-10T14:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T14:02:51+00:00</t>
+    <t>2022-08-12T01:06:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T01:06:24+00:00</t>
+    <t>2022-08-12T01:25:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T01:25:44+00:00</t>
+    <t>2022-08-12T05:25:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T05:25:03+00:00</t>
+    <t>2022-08-12T11:25:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T11:25:08+00:00</t>
+    <t>2022-08-12T14:21:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T14:21:21+00:00</t>
+    <t>2022-08-13T23:05:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-13T23:05:38+00:00</t>
+    <t>2022-08-15T03:50:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T03:50:58+00:00</t>
+    <t>2022-08-16T02:11:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T02:11:44+00:00</t>
+    <t>2022-08-16T02:16:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T02:16:31+00:00</t>
+    <t>2022-08-16T05:36:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T05:36:02+00:00</t>
+    <t>2022-08-16T08:28:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T08:28:52+00:00</t>
+    <t>2022-08-17T02:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T02:18:50+00:00</t>
+    <t>2022-08-19T07:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T07:58:38+00:00</t>
+    <t>2022-08-19T11:50:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T11:50:06+00:00</t>
+    <t>2022-08-19T12:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T12:05:20+00:00</t>
+    <t>2022-08-19T13:26:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T13:26:06+00:00</t>
+    <t>2022-08-19T22:47:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T22:47:44+00:00</t>
+    <t>2022-08-19T23:18:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-19T23:18:22+00:00</t>
+    <t>2022-08-20T06:38:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T06:38:45+00:00</t>
+    <t>2022-08-20T21:49:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T21:49:31+00:00</t>
+    <t>2022-08-22T05:20:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T05:20:45+00:00</t>
+    <t>2022-08-22T05:33:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T05:33:58+00:00</t>
+    <t>2022-08-23T04:13:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T04:13:25+00:00</t>
+    <t>2022-08-23T09:39:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T09:39:37+00:00</t>
+    <t>2022-08-23T11:46:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core Medication Common Code</t>
+    <t>JP Core Medication Common CodeSystem</t>
   </si>
   <si>
     <t>Status</t>
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T11:46:01+00:00</t>
+    <t>2022-08-23T14:14:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Value Set (all codes)</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCodeCommon_VS</t>
   </si>
   <si>
     <t>Hierarchy</t>
@@ -380,43 +383,45 @@
       <c r="A16" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" t="s" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2"/>
     </row>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T14:14:41+00:00</t>
+    <t>2022-08-23T14:37:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T14:37:49+00:00</t>
+    <t>2022-08-24T00:00:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T00:00:04+00:00</t>
+    <t>2022-08-24T01:12:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T01:12:00+00:00</t>
+    <t>2022-08-24T05:56:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T05:56:06+00:00</t>
+    <t>2022-08-24T08:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T08:36:55+00:00</t>
+    <t>2022-08-25T07:26:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T07:26:37+00:00</t>
+    <t>2022-08-25T09:08:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T09:08:19+00:00</t>
+    <t>2022-08-26T06:24:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T06:24:45+00:00</t>
+    <t>2022-08-26T08:05:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:05:58+00:00</t>
+    <t>2022-08-26T08:35:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:35:36+00:00</t>
+    <t>2022-08-26T11:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T11:44:17+00:00</t>
+    <t>2022-08-26T11:46:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T11:46:15+00:00</t>
+    <t>2022-08-29T02:59:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T02:59:02+00:00</t>
+    <t>2022-08-29T03:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T03:09:31+00:00</t>
+    <t>2022-08-29T03:34:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T03:34:24+00:00</t>
+    <t>2022-08-29T04:09:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T04:09:01+00:00</t>
+    <t>2022-08-29T12:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T12:54:27+00:00</t>
+    <t>2022-08-29T13:08:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T13:08:49+00:00</t>
+    <t>2022-08-29T13:33:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T13:33:12+00:00</t>
+    <t>2022-08-29T14:08:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T14:08:50+00:00</t>
+    <t>2022-08-29T14:28:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T14:28:45+00:00</t>
+    <t>2022-08-30T01:48:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-30T01:48:21+00:00</t>
+    <t>2022-08-30T01:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-30T01:58:57+00:00</t>
+    <t>2022-08-31T03:49:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T03:49:51+00:00</t>
+    <t>2022-08-31T03:54:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T03:54:28+00:00</t>
+    <t>2022-08-31T04:03:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T04:03:32+00:00</t>
+    <t>2022-08-31T10:04:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -113,7 +113,7 @@
     <t>Content</t>
   </si>
   <si>
-    <t>example</t>
+    <t>fragment</t>
   </si>
   <si>
     <t>Supplements</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T10:04:27+00:00</t>
+    <t>2022-08-31T10:47:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T10:47:17+00:00</t>
+    <t>2022-08-31T12:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T12:43:18+00:00</t>
+    <t>2022-08-31T13:42:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T13:42:36+00:00</t>
+    <t>2022-08-31T15:28:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T15:28:04+00:00</t>
+    <t>2022-08-31T15:55:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T15:55:44+00:00</t>
+    <t>2022-09-01T06:32:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T06:32:04+00:00</t>
+    <t>2022-09-01T12:04:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T12:04:59+00:00</t>
+    <t>2022-09-02T02:55:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T02:55:21+00:00</t>
+    <t>2022-09-02T03:38:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -23,7 +23,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.100495.20.1.81</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationCodeCommon_CS</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>id: urn:oid:1.2.392.100495.20.1.81</t>
   </si>
   <si>
     <t>Version</t>
@@ -56,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T03:38:16+00:00</t>
+    <t>2022-09-02T05:18:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -253,7 +259,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -315,15 +321,15 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s" s="2">
         <v>14</v>
       </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
@@ -361,22 +367,22 @@
       <c r="A13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>16</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -391,39 +397,47 @@
       <c r="A17" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" t="s" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s" s="2">
         <v>33</v>
       </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" t="s" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T05:18:16+00:00</t>
+    <t>2022-09-02T05:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T05:23:11+00:00</t>
+    <t>2022-09-02T05:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T05:31:57+00:00</t>
+    <t>2022-09-02T07:45:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T07:45:49+00:00</t>
+    <t>2022-09-02T09:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T09:30:25+00:00</t>
+    <t>2022-09-02T09:35:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T09:35:05+00:00</t>
+    <t>2022-09-02T10:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T10:41:06+00:00</t>
+    <t>2022-09-02T11:26:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T11:26:25+00:00</t>
+    <t>2022-09-02T11:38:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T11:38:41+00:00</t>
+    <t>2022-09-02T11:58:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T11:58:56+00:00</t>
+    <t>2022-09-02T12:49:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-medication-code-common-cs.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T12:49:53+00:00</t>
+    <t>2022-09-02T13:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
